--- a/data/trans_orig/P43C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Provincia-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>146234</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130621</v>
+        <v>128983</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162492</v>
+        <v>162481</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5744089255032008</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5130839536804004</v>
+        <v>0.5066469405770724</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6382726258905785</v>
+        <v>0.6382279707404727</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>108347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92089</v>
+        <v>92100</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123960</v>
+        <v>125598</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4255910744967992</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3617273741094214</v>
+        <v>0.361772029259527</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4869160463195993</v>
+        <v>0.4933530594229276</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>271606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>250105</v>
+        <v>249422</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>292796</v>
+        <v>293119</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5462565797580023</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5030135747006991</v>
+        <v>0.5016388094505007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.588873364911177</v>
+        <v>0.5895230182174674</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>225608</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>204418</v>
+        <v>204095</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>247109</v>
+        <v>247792</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4537434202419977</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4111266350888229</v>
+        <v>0.4104769817825325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4969864252993009</v>
+        <v>0.4983611905494993</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>188097</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169458</v>
+        <v>170950</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>204980</v>
+        <v>205356</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.567415232080875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5111891284136358</v>
+        <v>0.5156881080119396</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6183441862563949</v>
+        <v>0.6194797546302985</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>143401</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126518</v>
+        <v>126142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>162040</v>
+        <v>160548</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.432584767919125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3816558137436049</v>
+        <v>0.3805202453697014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4888108715863642</v>
+        <v>0.4843118919880604</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>209068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>190854</v>
+        <v>190668</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>228897</v>
+        <v>228761</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5654553918517916</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.516195335142305</v>
+        <v>0.5156915000758835</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6190869080597168</v>
+        <v>0.6187196800939649</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>160665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>140836</v>
+        <v>140972</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178879</v>
+        <v>179065</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4345446081482084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3809130919402831</v>
+        <v>0.381280319906035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.483804664857695</v>
+        <v>0.4843084999241165</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>84813</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72139</v>
+        <v>70176</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99968</v>
+        <v>98781</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4177915438348779</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3553608340016053</v>
+        <v>0.3456920600636393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4924467365865481</v>
+        <v>0.4865998588013045</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>118189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>103034</v>
+        <v>104221</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>130863</v>
+        <v>132826</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5822084561651221</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5075532634134521</v>
+        <v>0.5134001411986955</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6446391659983948</v>
+        <v>0.6543079399363608</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>127365</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>109691</v>
+        <v>110923</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143111</v>
+        <v>144806</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.463477110435109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3991610256522269</v>
+        <v>0.4036471267172065</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5207767322337838</v>
+        <v>0.5269430142180396</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>147438</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>131692</v>
+        <v>129997</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165112</v>
+        <v>163880</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.536522889564891</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4792232677662159</v>
+        <v>0.4730569857819598</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6008389743477727</v>
+        <v>0.5963528732827935</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>403613</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>379654</v>
+        <v>377776</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>426837</v>
+        <v>427020</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6351022268000136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.597401837251714</v>
+        <v>0.5944459366456746</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6716464679252236</v>
+        <v>0.6719330567901352</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>231896</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>208672</v>
+        <v>208489</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>255855</v>
+        <v>257733</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3648977731999863</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3283535320747764</v>
+        <v>0.3280669432098648</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4025981627482861</v>
+        <v>0.4055540633543253</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>359553</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>330675</v>
+        <v>331564</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>385533</v>
+        <v>386924</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4726550599718538</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4346932034117703</v>
+        <v>0.4358614018777857</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5068076106482333</v>
+        <v>0.5086358528644209</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>401156</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>375176</v>
+        <v>373785</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>430034</v>
+        <v>429145</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5273449400281462</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4931923893517667</v>
+        <v>0.491364147135579</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5653067965882299</v>
+        <v>0.5641385981222142</v>
       </c>
     </row>
     <row r="27">
@@ -1352,19 +1352,19 @@
         <v>1790349</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1730800</v>
+        <v>1725205</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1846091</v>
+        <v>1843944</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5381189638425683</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5202205148780882</v>
+        <v>0.5185389829580822</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5548732931486725</v>
+        <v>0.5542279318459997</v>
       </c>
     </row>
     <row r="29">
@@ -1381,19 +1381,19 @@
         <v>1536701</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1480959</v>
+        <v>1483106</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1596250</v>
+        <v>1601845</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4618810361574317</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4451267068513274</v>
+        <v>0.4457720681540002</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4797794851219119</v>
+        <v>0.4814610170419177</v>
       </c>
     </row>
     <row r="30">
@@ -1565,19 +1565,19 @@
         <v>200802</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>184728</v>
+        <v>183090</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>215168</v>
+        <v>214962</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7176234326959332</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6601807328572715</v>
+        <v>0.6543251634284716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7689638893141124</v>
+        <v>0.7682302797324451</v>
       </c>
     </row>
     <row r="5">
@@ -1594,19 +1594,19 @@
         <v>79013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64647</v>
+        <v>64853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95087</v>
+        <v>96725</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2823765673040668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2310361106858876</v>
+        <v>0.2317697202675549</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3398192671427284</v>
+        <v>0.3456748365715283</v>
       </c>
     </row>
     <row r="6">
@@ -1656,19 +1656,19 @@
         <v>379281</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>357656</v>
+        <v>358339</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>399369</v>
+        <v>399097</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7313342674427642</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6896375974560026</v>
+        <v>0.6909529716656718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7700688664780155</v>
+        <v>0.7695436262145074</v>
       </c>
     </row>
     <row r="8">
@@ -1685,19 +1685,19 @@
         <v>139334</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>119246</v>
+        <v>119518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>160959</v>
+        <v>160276</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2686657325572359</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2299311335219847</v>
+        <v>0.2304563737854927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3103624025439975</v>
+        <v>0.3090470283343282</v>
       </c>
     </row>
     <row r="9">
@@ -1747,19 +1747,19 @@
         <v>192571</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>175171</v>
+        <v>173010</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>211380</v>
+        <v>209680</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5663295317365789</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5151572817404934</v>
+        <v>0.5088007898754933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6216440940427149</v>
+        <v>0.6166453800577782</v>
       </c>
     </row>
     <row r="11">
@@ -1776,19 +1776,19 @@
         <v>147463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>128654</v>
+        <v>130354</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>164863</v>
+        <v>167024</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4336704682634211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3783559059572852</v>
+        <v>0.3833546199422218</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4848427182595067</v>
+        <v>0.4911992101245068</v>
       </c>
     </row>
     <row r="12">
@@ -1838,19 +1838,19 @@
         <v>260361</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>241018</v>
+        <v>240351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>277805</v>
+        <v>279413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6710418019152515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.621188985277788</v>
+        <v>0.6194691188241075</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7160014167917197</v>
+        <v>0.7201469438552709</v>
       </c>
     </row>
     <row r="14">
@@ -1867,19 +1867,19 @@
         <v>127634</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110190</v>
+        <v>108582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146977</v>
+        <v>147644</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3289581980847484</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2839985832082805</v>
+        <v>0.2798530561447292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3788110147222121</v>
+        <v>0.3805308811758927</v>
       </c>
     </row>
     <row r="15">
@@ -1929,19 +1929,19 @@
         <v>136664</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>122880</v>
+        <v>122530</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>151638</v>
+        <v>149910</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6312488189350389</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5675811674619841</v>
+        <v>0.565961923781836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7004150012127434</v>
+        <v>0.6924326327822148</v>
       </c>
     </row>
     <row r="17">
@@ -1958,19 +1958,19 @@
         <v>79834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64860</v>
+        <v>66588</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93618</v>
+        <v>93968</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.368751181064961</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2995849987872569</v>
+        <v>0.3075673672177849</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.432418832538016</v>
+        <v>0.4340380762181641</v>
       </c>
     </row>
     <row r="18">
@@ -2020,19 +2020,19 @@
         <v>152598</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>134597</v>
+        <v>134627</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>169498</v>
+        <v>168642</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5449337454854571</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4806490695989186</v>
+        <v>0.4807587728279272</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6052828238139667</v>
+        <v>0.6022273129390554</v>
       </c>
     </row>
     <row r="20">
@@ -2049,19 +2049,19 @@
         <v>127433</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110533</v>
+        <v>111389</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>145434</v>
+        <v>145404</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4550662545145429</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3947171761860332</v>
+        <v>0.3977726870609445</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5193509304010814</v>
+        <v>0.5192412271720729</v>
       </c>
     </row>
     <row r="21">
@@ -2111,19 +2111,19 @@
         <v>438375</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>411615</v>
+        <v>413143</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>464754</v>
+        <v>465247</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6372489204913387</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5983495706917535</v>
+        <v>0.6005707972244841</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.675595729964134</v>
+        <v>0.6763121683525571</v>
       </c>
     </row>
     <row r="23">
@@ -2140,19 +2140,19 @@
         <v>249543</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>223164</v>
+        <v>222671</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>276303</v>
+        <v>274775</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3627510795086613</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3244042700358662</v>
+        <v>0.3236878316474431</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4016504293082465</v>
+        <v>0.3994292027755159</v>
       </c>
     </row>
     <row r="24">
@@ -2202,19 +2202,19 @@
         <v>532324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>506149</v>
+        <v>502905</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>560077</v>
+        <v>558406</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6560176461959091</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6237611573536697</v>
+        <v>0.6197628321265425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6902200838805076</v>
+        <v>0.6881604763566596</v>
       </c>
     </row>
     <row r="26">
@@ -2231,19 +2231,19 @@
         <v>279123</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>251370</v>
+        <v>253041</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>305298</v>
+        <v>308542</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3439823538040909</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3097799161194924</v>
+        <v>0.3118395236433403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3762388426463303</v>
+        <v>0.3802371678734574</v>
       </c>
     </row>
     <row r="27">
@@ -2293,19 +2293,19 @@
         <v>2292976</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2230971</v>
+        <v>2232848</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2347645</v>
+        <v>2351253</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6509784238645352</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6333750864083513</v>
+        <v>0.6339079466856339</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6664989728235774</v>
+        <v>0.667523406241641</v>
       </c>
     </row>
     <row r="29">
@@ -2322,19 +2322,19 @@
         <v>1229377</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1174708</v>
+        <v>1171100</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1291382</v>
+        <v>1289505</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3490215761354648</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3335010271764227</v>
+        <v>0.332476593758359</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3666249135916487</v>
+        <v>0.3660920533143661</v>
       </c>
     </row>
     <row r="30">
@@ -2506,19 +2506,19 @@
         <v>202807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>187544</v>
+        <v>186118</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217616</v>
+        <v>216435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.71381877488979</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6600973720977878</v>
+        <v>0.6550787188645811</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7659422672851686</v>
+        <v>0.7617874858881609</v>
       </c>
     </row>
     <row r="5">
@@ -2535,19 +2535,19 @@
         <v>81308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66499</v>
+        <v>67680</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96571</v>
+        <v>97997</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.28618122511021</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2340577327148315</v>
+        <v>0.2382125141118391</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3399026279022121</v>
+        <v>0.3449212811354191</v>
       </c>
     </row>
     <row r="6">
@@ -2597,19 +2597,19 @@
         <v>384163</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>361819</v>
+        <v>361956</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>405644</v>
+        <v>404891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7381002389205984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6951696846553397</v>
+        <v>0.6954316928045836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7793720186823606</v>
+        <v>0.7779253388990094</v>
       </c>
     </row>
     <row r="8">
@@ -2626,19 +2626,19 @@
         <v>136313</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>114832</v>
+        <v>115585</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158657</v>
+        <v>158520</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2618997610794016</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2206279813176394</v>
+        <v>0.2220746611009906</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3048303153446605</v>
+        <v>0.3045683071954163</v>
       </c>
     </row>
     <row r="9">
@@ -2688,19 +2688,19 @@
         <v>261239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>245380</v>
+        <v>246211</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>275197</v>
+        <v>274018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7877909694840043</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7399687972421869</v>
+        <v>0.7424741361598762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8298838505918905</v>
+        <v>0.8263279815464145</v>
       </c>
     </row>
     <row r="11">
@@ -2717,19 +2717,19 @@
         <v>70370</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56412</v>
+        <v>57591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>86229</v>
+        <v>85398</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2122090305159957</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1701161494081095</v>
+        <v>0.1736720184535855</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2600312027578132</v>
+        <v>0.2575258638401238</v>
       </c>
     </row>
     <row r="12">
@@ -2779,19 +2779,19 @@
         <v>269888</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>248427</v>
+        <v>249690</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>287324</v>
+        <v>287879</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.69904935717608</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6434624092809916</v>
+        <v>0.6467339039941861</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.744212366244223</v>
+        <v>0.7456487151056524</v>
       </c>
     </row>
     <row r="14">
@@ -2808,19 +2808,19 @@
         <v>116190</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98754</v>
+        <v>98199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137651</v>
+        <v>136388</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.30095064282392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.255787633755777</v>
+        <v>0.2543512848943477</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3565375907190084</v>
+        <v>0.3532660960058139</v>
       </c>
     </row>
     <row r="15">
@@ -2870,19 +2870,19 @@
         <v>94689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80005</v>
+        <v>79910</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108881</v>
+        <v>109742</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4389245244762116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3708608695134145</v>
+        <v>0.3704174033583545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5047101895102768</v>
+        <v>0.5087036875719503</v>
       </c>
     </row>
     <row r="17">
@@ -2899,19 +2899,19 @@
         <v>121040</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>106848</v>
+        <v>105987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135724</v>
+        <v>135819</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5610754755237884</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4952898104897234</v>
+        <v>0.4912963124280499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6291391304865855</v>
+        <v>0.6295825966416455</v>
       </c>
     </row>
     <row r="18">
@@ -2961,19 +2961,19 @@
         <v>62742</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49808</v>
+        <v>50486</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77947</v>
+        <v>78885</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2319673462649059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1841479029144015</v>
+        <v>0.1866552308443959</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2881818906365318</v>
+        <v>0.2916496196293362</v>
       </c>
     </row>
     <row r="20">
@@ -2990,19 +2990,19 @@
         <v>207735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>192530</v>
+        <v>191592</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>220669</v>
+        <v>219991</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.768032653735094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7118181093634681</v>
+        <v>0.708350380370664</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8158520970855986</v>
+        <v>0.8133447691556041</v>
       </c>
     </row>
     <row r="21">
@@ -3052,19 +3052,19 @@
         <v>420196</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>393262</v>
+        <v>391291</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>445086</v>
+        <v>444864</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6195719477713547</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5798583262245537</v>
+        <v>0.5769520533967608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6562722408496442</v>
+        <v>0.6559445980723687</v>
       </c>
     </row>
     <row r="23">
@@ -3081,19 +3081,19 @@
         <v>258007</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233117</v>
+        <v>233339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>284941</v>
+        <v>286912</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3804280522286453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3437277591503557</v>
+        <v>0.3440554019276312</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4201416737754464</v>
+        <v>0.4230479466032393</v>
       </c>
     </row>
     <row r="24">
@@ -3143,19 +3143,19 @@
         <v>546503</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>518323</v>
+        <v>517500</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>574490</v>
+        <v>572606</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6664807170768793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6321147961187908</v>
+        <v>0.6311106139204593</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7006115031917847</v>
+        <v>0.698314749576041</v>
       </c>
     </row>
     <row r="26">
@@ -3172,19 +3172,19 @@
         <v>273480</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>245493</v>
+        <v>247377</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>301660</v>
+        <v>302483</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3335192829231207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2993884968082156</v>
+        <v>0.3016852504239589</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3678852038812093</v>
+        <v>0.3688893860795406</v>
       </c>
     </row>
     <row r="27">
@@ -3234,19 +3234,19 @@
         <v>2242226</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2187883</v>
+        <v>2186278</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2299293</v>
+        <v>2303313</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6394171953292009</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6239200703340392</v>
+        <v>0.623462457887602</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6556910068448542</v>
+        <v>0.6568374336463259</v>
       </c>
     </row>
     <row r="29">
@@ -3263,19 +3263,19 @@
         <v>1264446</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1207379</v>
+        <v>1203359</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1318789</v>
+        <v>1320394</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3605828046707991</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3443089931551455</v>
+        <v>0.343162566353674</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3760799296659606</v>
+        <v>0.3765375421123973</v>
       </c>
     </row>
     <row r="30">
@@ -3447,19 +3447,19 @@
         <v>182455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>171494</v>
+        <v>170147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>190177</v>
+        <v>190158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8954647286506898</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8416711760030764</v>
+        <v>0.8350597812357652</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9333668826534652</v>
+        <v>0.9332733365824463</v>
       </c>
     </row>
     <row r="5">
@@ -3476,19 +3476,19 @@
         <v>21299</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13577</v>
+        <v>13596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32260</v>
+        <v>33607</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1045352713493102</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06663311734653478</v>
+        <v>0.06672666341755379</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1583288239969236</v>
+        <v>0.1649402187642348</v>
       </c>
     </row>
     <row r="6">
@@ -3538,19 +3538,19 @@
         <v>241742</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>221709</v>
+        <v>224436</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>260347</v>
+        <v>261947</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.574856826135814</v>
+        <v>0.5748568261358141</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5272175236951655</v>
+        <v>0.5337024565861658</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.619099484716479</v>
+        <v>0.6229043577644284</v>
       </c>
     </row>
     <row r="8">
@@ -3567,19 +3567,19 @@
         <v>178784</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>160179</v>
+        <v>158579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>198817</v>
+        <v>196090</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.425143173864186</v>
+        <v>0.4251431738641859</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3809005152835211</v>
+        <v>0.3770956422355717</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4727824763048345</v>
+        <v>0.4662975434138343</v>
       </c>
     </row>
     <row r="9">
@@ -3629,19 +3629,19 @@
         <v>160528</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146708</v>
+        <v>146481</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>173729</v>
+        <v>173819</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6294968960868833</v>
+        <v>0.6294968960868834</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5753018365921293</v>
+        <v>0.574412770318123</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6812627696923137</v>
+        <v>0.6816155863340927</v>
       </c>
     </row>
     <row r="11">
@@ -3658,19 +3658,19 @@
         <v>94482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81281</v>
+        <v>81191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108302</v>
+        <v>108529</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3705031039131166</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3187372303076862</v>
+        <v>0.3183844136659073</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4246981634078706</v>
+        <v>0.425587229681877</v>
       </c>
     </row>
     <row r="12">
@@ -3720,19 +3720,19 @@
         <v>209662</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>189356</v>
+        <v>191022</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>225624</v>
+        <v>226464</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.660754197718654</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5967596366278862</v>
+        <v>0.6020104771599192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7110591143098414</v>
+        <v>0.7137048671829105</v>
       </c>
     </row>
     <row r="14">
@@ -3749,19 +3749,19 @@
         <v>107645</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91683</v>
+        <v>90843</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>127951</v>
+        <v>126285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3392458022813461</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2889408856901587</v>
+        <v>0.2862951328170898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4032403633721139</v>
+        <v>0.397989522840081</v>
       </c>
     </row>
     <row r="15">
@@ -3811,19 +3811,19 @@
         <v>64951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56317</v>
+        <v>56723</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73916</v>
+        <v>74176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3946531383986766</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3421939971182967</v>
+        <v>0.3446586488024583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4491249936326689</v>
+        <v>0.4507046038687347</v>
       </c>
     </row>
     <row r="17">
@@ -3840,19 +3840,19 @@
         <v>99626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90661</v>
+        <v>90401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108260</v>
+        <v>107854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6053468616013234</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5508750063673311</v>
+        <v>0.5492953961312652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6578060028817032</v>
+        <v>0.6553413511975416</v>
       </c>
     </row>
     <row r="18">
@@ -3902,19 +3902,19 @@
         <v>88920</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77965</v>
+        <v>77675</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100869</v>
+        <v>100705</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4142569596325802</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3632197380036784</v>
+        <v>0.3618701738318597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4699246686499518</v>
+        <v>0.4691603827475304</v>
       </c>
     </row>
     <row r="20">
@@ -3931,19 +3931,19 @@
         <v>125729</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113780</v>
+        <v>113944</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>136684</v>
+        <v>136974</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5857430403674199</v>
+        <v>0.5857430403674196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5300753313500485</v>
+        <v>0.5308396172524696</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6367802619963219</v>
+        <v>0.6381298261681406</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>394812</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>374735</v>
+        <v>373731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>414421</v>
+        <v>414109</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7374251890983322</v>
+        <v>0.7374251890983323</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6999262257669301</v>
+        <v>0.6980513936154094</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7740513803899813</v>
+        <v>0.7734687723809902</v>
       </c>
     </row>
     <row r="23">
@@ -4022,19 +4022,19 @@
         <v>140580</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>120971</v>
+        <v>121283</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>160657</v>
+        <v>161661</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2625748109016678</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.225948619610019</v>
+        <v>0.2265312276190097</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3000737742330702</v>
+        <v>0.3019486063845907</v>
       </c>
     </row>
     <row r="24">
@@ -4084,19 +4084,19 @@
         <v>267526</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>244380</v>
+        <v>244722</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>289334</v>
+        <v>290845</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4000880018896826</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3654729779114353</v>
+        <v>0.3659850839263495</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.432702264883428</v>
+        <v>0.4349618317441465</v>
       </c>
     </row>
     <row r="26">
@@ -4113,19 +4113,19 @@
         <v>401141</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>379333</v>
+        <v>377822</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>424287</v>
+        <v>423945</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5999119981103174</v>
+        <v>0.5999119981103175</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5672977351165724</v>
+        <v>0.5650381682558535</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6345270220885649</v>
+        <v>0.6340149160736503</v>
       </c>
     </row>
     <row r="27">
@@ -4175,19 +4175,19 @@
         <v>1610595</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1562097</v>
+        <v>1561848</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1656945</v>
+        <v>1659118</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.5793751845427149</v>
+        <v>0.5793751845427151</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5619294092235907</v>
+        <v>0.5618397888916334</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5960486258011589</v>
+        <v>0.5968302605884683</v>
       </c>
     </row>
     <row r="29">
@@ -4204,19 +4204,19 @@
         <v>1169287</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1122937</v>
+        <v>1120764</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1217785</v>
+        <v>1218034</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.420624815457285</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.403951374198841</v>
+        <v>0.4031697394115318</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4380705907764085</v>
+        <v>0.4381602111083664</v>
       </c>
     </row>
     <row r="30">
